--- a/biology/Médecine/Guérison/Guérison.xlsx
+++ b/biology/Médecine/Guérison/Guérison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gu%C3%A9rison</t>
+          <t>Guérison</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La guérison est l'action de guérir d'une maladie ou le retour à la santé[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La guérison est l'action de guérir d'une maladie ou le retour à la santé.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gu%C3%A9rison</t>
+          <t>Guérison</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au niveau biologique c'est un processus par lequel les cellules du corps se régénèrent pour réduire l'espace d'une région endommagée par la nécrose. La guérison implique la suppression du tissu endommagé et le remplacement de ce tissu. 
 Le remplacement peut se produire de deux façons : 
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gu%C3%A9rison</t>
+          <t>Guérison</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Expériences spirituelles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certaines personnes affirment avoir expérimenté des guérisons par la foi[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certaines personnes affirment avoir expérimenté des guérisons par la foi.
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gu%C3%A9rison</t>
+          <t>Guérison</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,9 +593,11 @@
           <t>Théorie de l'autoguérison</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon le principe d'autoguérison, le corps posséderait par lui-même les moyens d'éliminer ou endiguer la maladie[3]. Un certain nombre de pseudomédecines mettent en avant des méthodes d'autoguérison ou des principes théoriques non fondés scientifiquement, voire reposant sur des postulats magiques ou spirituels[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon le principe d'autoguérison, le corps posséderait par lui-même les moyens d'éliminer ou endiguer la maladie. Un certain nombre de pseudomédecines mettent en avant des méthodes d'autoguérison ou des principes théoriques non fondés scientifiquement, voire reposant sur des postulats magiques ou spirituels.
 </t>
         </is>
       </c>
